--- a/po_analysis_by_asin/B09GL7HQ6S_po_data.xlsx
+++ b/po_analysis_by_asin/B09GL7HQ6S_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,201 +452,417 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45341</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45348</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45355</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45362</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45376</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45383</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45390</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45474</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>134</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45488</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>294</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45495</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45509</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45523</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>330</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45530</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45537</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45544</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45551</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45565</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45572</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45579</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45586</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45593</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45600</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>132</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45607</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45614</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45621</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B26" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B53" t="n">
         <v>36</v>
       </c>
     </row>
@@ -661,7 +877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,65 +899,129 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>158</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45474</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>438</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45505</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>372</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45536</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45597</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B17" t="n">
         <v>224</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09GL7HQ6S_po_data.xlsx
+++ b/po_analysis_by_asin/B09GL7HQ6S_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -893,7 +894,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1023,6 +1024,887 @@
       </c>
       <c r="B17" t="n">
         <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>83</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-37.598013276473</v>
+      </c>
+      <c r="D2" t="n">
+        <v>198.4826571779394</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>83</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-38.75267517789888</v>
+      </c>
+      <c r="D3" t="n">
+        <v>198.504523264877</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>83</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-35.83055927495901</v>
+      </c>
+      <c r="D4" t="n">
+        <v>206.2603017451686</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>82</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-38.76598761553932</v>
+      </c>
+      <c r="D5" t="n">
+        <v>202.9694688290953</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>82</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-42.42006607119447</v>
+      </c>
+      <c r="D6" t="n">
+        <v>206.6267709308632</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>82</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-41.3796109025008</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200.8252620154346</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>81</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-42.83911814353748</v>
+      </c>
+      <c r="D8" t="n">
+        <v>199.1649416291972</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>81</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-39.74107032072772</v>
+      </c>
+      <c r="D9" t="n">
+        <v>199.8013098069874</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>81</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-40.50189431064364</v>
+      </c>
+      <c r="D10" t="n">
+        <v>198.7612958361314</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>80</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-37.98760203058615</v>
+      </c>
+      <c r="D11" t="n">
+        <v>200.4717826190727</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>80</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-37.77483497188051</v>
+      </c>
+      <c r="D12" t="n">
+        <v>202.1577945605025</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>80</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-39.13667808907554</v>
+      </c>
+      <c r="D13" t="n">
+        <v>191.9632377118342</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>79</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-35.14322738247283</v>
+      </c>
+      <c r="D14" t="n">
+        <v>191.0562602393443</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>79</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-45.67996763414252</v>
+      </c>
+      <c r="D15" t="n">
+        <v>197.5594622018089</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>79</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-43.75119094279339</v>
+      </c>
+      <c r="D16" t="n">
+        <v>198.5636464773883</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>78</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-47.82259251591258</v>
+      </c>
+      <c r="D17" t="n">
+        <v>197.2307791019536</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>77</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-37.98467427588691</v>
+      </c>
+      <c r="D18" t="n">
+        <v>193.8262814241448</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>77</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-48.41462493629822</v>
+      </c>
+      <c r="D19" t="n">
+        <v>201.0109622178131</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>77</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-40.75228819313531</v>
+      </c>
+      <c r="D20" t="n">
+        <v>200.799913677403</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>77</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-40.97646986640805</v>
+      </c>
+      <c r="D21" t="n">
+        <v>189.7120549061759</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>76</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-47.48241442008103</v>
+      </c>
+      <c r="D22" t="n">
+        <v>194.540376832205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>76</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-44.88983551128739</v>
+      </c>
+      <c r="D23" t="n">
+        <v>195.3710776757362</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>76</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-52.64334928121934</v>
+      </c>
+      <c r="D24" t="n">
+        <v>190.0069892139585</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>76</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-42.57838145192445</v>
+      </c>
+      <c r="D25" t="n">
+        <v>191.6843797211634</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>75</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-47.71728419617654</v>
+      </c>
+      <c r="D26" t="n">
+        <v>189.4202013767274</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>75</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-43.75094667086312</v>
+      </c>
+      <c r="D27" t="n">
+        <v>195.1195966230337</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>75</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-43.62812036521606</v>
+      </c>
+      <c r="D28" t="n">
+        <v>194.9776998293016</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>69</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-50.40021454631362</v>
+      </c>
+      <c r="D29" t="n">
+        <v>192.8766639507254</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>68</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-40.6150783265244</v>
+      </c>
+      <c r="D30" t="n">
+        <v>184.3988885265454</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>68</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-51.67399116865662</v>
+      </c>
+      <c r="D31" t="n">
+        <v>192.9807068872273</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>68</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-60.66393689933863</v>
+      </c>
+      <c r="D32" t="n">
+        <v>187.6707835890621</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-47.30048523146942</v>
+      </c>
+      <c r="D33" t="n">
+        <v>189.8927486407972</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>67</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-50.90871791372717</v>
+      </c>
+      <c r="D34" t="n">
+        <v>183.1648117754334</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>67</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-55.46768125725465</v>
+      </c>
+      <c r="D35" t="n">
+        <v>185.4832584885398</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>64</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-60.55433179007139</v>
+      </c>
+      <c r="D36" t="n">
+        <v>179.9171411593573</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>63</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-50.29541098754665</v>
+      </c>
+      <c r="D37" t="n">
+        <v>182.3181606174111</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>63</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-60.90557009568913</v>
+      </c>
+      <c r="D38" t="n">
+        <v>187.4976004948539</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>63</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-46.03549630304442</v>
+      </c>
+      <c r="D39" t="n">
+        <v>185.7629322521187</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>62</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-57.04779604066113</v>
+      </c>
+      <c r="D40" t="n">
+        <v>186.5403309190393</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>62</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-62.17562752813383</v>
+      </c>
+      <c r="D41" t="n">
+        <v>177.9171161999453</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>62</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-60.1082109340759</v>
+      </c>
+      <c r="D42" t="n">
+        <v>173.9091244743662</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>61</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-51.38017451579248</v>
+      </c>
+      <c r="D43" t="n">
+        <v>190.3559271876168</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>61</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-60.24703219651794</v>
+      </c>
+      <c r="D44" t="n">
+        <v>179.5577127063544</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>61</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-63.53953253384415</v>
+      </c>
+      <c r="D45" t="n">
+        <v>186.0144593239524</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>60</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-59.06793979824822</v>
+      </c>
+      <c r="D46" t="n">
+        <v>165.2841113866724</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>60</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-60.32438232145171</v>
+      </c>
+      <c r="D47" t="n">
+        <v>179.5825228250941</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>60</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-62.44777555760031</v>
+      </c>
+      <c r="D48" t="n">
+        <v>174.4586470905649</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>60</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-63.03369746841155</v>
+      </c>
+      <c r="D49" t="n">
+        <v>187.8996505012414</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>59</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-56.73335262522812</v>
+      </c>
+      <c r="D50" t="n">
+        <v>184.2670947115664</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>59</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-65.85498960308095</v>
+      </c>
+      <c r="D51" t="n">
+        <v>183.842517136718</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>59</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-60.30270940763586</v>
+      </c>
+      <c r="D52" t="n">
+        <v>172.9197181185741</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>59</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-63.20177062556795</v>
+      </c>
+      <c r="D53" t="n">
+        <v>179.2493289956711</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>58</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-63.79943341780032</v>
+      </c>
+      <c r="D54" t="n">
+        <v>181.1528914589485</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>58</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-54.11729946975956</v>
+      </c>
+      <c r="D55" t="n">
+        <v>182.7271411164385</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>58</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-61.75475085682893</v>
+      </c>
+      <c r="D56" t="n">
+        <v>168.6204607399958</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>58</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-63.65129624936704</v>
+      </c>
+      <c r="D57" t="n">
+        <v>180.3747538753896</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-62.22006106135753</v>
+      </c>
+      <c r="D58" t="n">
+        <v>177.3664300753771</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-62.15020258390854</v>
+      </c>
+      <c r="D59" t="n">
+        <v>183.1357283488026</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>57</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-66.00777825775923</v>
+      </c>
+      <c r="D60" t="n">
+        <v>173.0235543356748</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>57</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-61.11293905838006</v>
+      </c>
+      <c r="D61" t="n">
+        <v>174.6304854884061</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09GL7HQ6S_po_data.xlsx
+++ b/po_analysis_by_asin/B09GL7HQ6S_po_data.xlsx
@@ -1037,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,16 +1056,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1074,12 +1064,6 @@
       <c r="B2" t="n">
         <v>83</v>
       </c>
-      <c r="C2" t="n">
-        <v>-37.598013276473</v>
-      </c>
-      <c r="D2" t="n">
-        <v>198.4826571779394</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1088,12 +1072,6 @@
       <c r="B3" t="n">
         <v>83</v>
       </c>
-      <c r="C3" t="n">
-        <v>-38.75267517789888</v>
-      </c>
-      <c r="D3" t="n">
-        <v>198.504523264877</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1102,12 +1080,6 @@
       <c r="B4" t="n">
         <v>83</v>
       </c>
-      <c r="C4" t="n">
-        <v>-35.83055927495901</v>
-      </c>
-      <c r="D4" t="n">
-        <v>206.2603017451686</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1116,12 +1088,6 @@
       <c r="B5" t="n">
         <v>82</v>
       </c>
-      <c r="C5" t="n">
-        <v>-38.76598761553932</v>
-      </c>
-      <c r="D5" t="n">
-        <v>202.9694688290953</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1130,12 +1096,6 @@
       <c r="B6" t="n">
         <v>82</v>
       </c>
-      <c r="C6" t="n">
-        <v>-42.42006607119447</v>
-      </c>
-      <c r="D6" t="n">
-        <v>206.6267709308632</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1144,12 +1104,6 @@
       <c r="B7" t="n">
         <v>82</v>
       </c>
-      <c r="C7" t="n">
-        <v>-41.3796109025008</v>
-      </c>
-      <c r="D7" t="n">
-        <v>200.8252620154346</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1158,12 +1112,6 @@
       <c r="B8" t="n">
         <v>81</v>
       </c>
-      <c r="C8" t="n">
-        <v>-42.83911814353748</v>
-      </c>
-      <c r="D8" t="n">
-        <v>199.1649416291972</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1172,12 +1120,6 @@
       <c r="B9" t="n">
         <v>81</v>
       </c>
-      <c r="C9" t="n">
-        <v>-39.74107032072772</v>
-      </c>
-      <c r="D9" t="n">
-        <v>199.8013098069874</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1186,12 +1128,6 @@
       <c r="B10" t="n">
         <v>81</v>
       </c>
-      <c r="C10" t="n">
-        <v>-40.50189431064364</v>
-      </c>
-      <c r="D10" t="n">
-        <v>198.7612958361314</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1200,12 +1136,6 @@
       <c r="B11" t="n">
         <v>80</v>
       </c>
-      <c r="C11" t="n">
-        <v>-37.98760203058615</v>
-      </c>
-      <c r="D11" t="n">
-        <v>200.4717826190727</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1214,12 +1144,6 @@
       <c r="B12" t="n">
         <v>80</v>
       </c>
-      <c r="C12" t="n">
-        <v>-37.77483497188051</v>
-      </c>
-      <c r="D12" t="n">
-        <v>202.1577945605025</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1228,12 +1152,6 @@
       <c r="B13" t="n">
         <v>80</v>
       </c>
-      <c r="C13" t="n">
-        <v>-39.13667808907554</v>
-      </c>
-      <c r="D13" t="n">
-        <v>191.9632377118342</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1242,12 +1160,6 @@
       <c r="B14" t="n">
         <v>79</v>
       </c>
-      <c r="C14" t="n">
-        <v>-35.14322738247283</v>
-      </c>
-      <c r="D14" t="n">
-        <v>191.0562602393443</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1256,12 +1168,6 @@
       <c r="B15" t="n">
         <v>79</v>
       </c>
-      <c r="C15" t="n">
-        <v>-45.67996763414252</v>
-      </c>
-      <c r="D15" t="n">
-        <v>197.5594622018089</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1270,12 +1176,6 @@
       <c r="B16" t="n">
         <v>79</v>
       </c>
-      <c r="C16" t="n">
-        <v>-43.75119094279339</v>
-      </c>
-      <c r="D16" t="n">
-        <v>198.5636464773883</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1284,12 +1184,6 @@
       <c r="B17" t="n">
         <v>78</v>
       </c>
-      <c r="C17" t="n">
-        <v>-47.82259251591258</v>
-      </c>
-      <c r="D17" t="n">
-        <v>197.2307791019536</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1298,12 +1192,6 @@
       <c r="B18" t="n">
         <v>77</v>
       </c>
-      <c r="C18" t="n">
-        <v>-37.98467427588691</v>
-      </c>
-      <c r="D18" t="n">
-        <v>193.8262814241448</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1312,12 +1200,6 @@
       <c r="B19" t="n">
         <v>77</v>
       </c>
-      <c r="C19" t="n">
-        <v>-48.41462493629822</v>
-      </c>
-      <c r="D19" t="n">
-        <v>201.0109622178131</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1326,12 +1208,6 @@
       <c r="B20" t="n">
         <v>77</v>
       </c>
-      <c r="C20" t="n">
-        <v>-40.75228819313531</v>
-      </c>
-      <c r="D20" t="n">
-        <v>200.799913677403</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1340,12 +1216,6 @@
       <c r="B21" t="n">
         <v>77</v>
       </c>
-      <c r="C21" t="n">
-        <v>-40.97646986640805</v>
-      </c>
-      <c r="D21" t="n">
-        <v>189.7120549061759</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1354,12 +1224,6 @@
       <c r="B22" t="n">
         <v>76</v>
       </c>
-      <c r="C22" t="n">
-        <v>-47.48241442008103</v>
-      </c>
-      <c r="D22" t="n">
-        <v>194.540376832205</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1368,12 +1232,6 @@
       <c r="B23" t="n">
         <v>76</v>
       </c>
-      <c r="C23" t="n">
-        <v>-44.88983551128739</v>
-      </c>
-      <c r="D23" t="n">
-        <v>195.3710776757362</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1382,12 +1240,6 @@
       <c r="B24" t="n">
         <v>76</v>
       </c>
-      <c r="C24" t="n">
-        <v>-52.64334928121934</v>
-      </c>
-      <c r="D24" t="n">
-        <v>190.0069892139585</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1396,12 +1248,6 @@
       <c r="B25" t="n">
         <v>76</v>
       </c>
-      <c r="C25" t="n">
-        <v>-42.57838145192445</v>
-      </c>
-      <c r="D25" t="n">
-        <v>191.6843797211634</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1410,12 +1256,6 @@
       <c r="B26" t="n">
         <v>75</v>
       </c>
-      <c r="C26" t="n">
-        <v>-47.71728419617654</v>
-      </c>
-      <c r="D26" t="n">
-        <v>189.4202013767274</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1424,12 +1264,6 @@
       <c r="B27" t="n">
         <v>75</v>
       </c>
-      <c r="C27" t="n">
-        <v>-43.75094667086312</v>
-      </c>
-      <c r="D27" t="n">
-        <v>195.1195966230337</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1438,12 +1272,6 @@
       <c r="B28" t="n">
         <v>75</v>
       </c>
-      <c r="C28" t="n">
-        <v>-43.62812036521606</v>
-      </c>
-      <c r="D28" t="n">
-        <v>194.9776998293016</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1452,12 +1280,6 @@
       <c r="B29" t="n">
         <v>69</v>
       </c>
-      <c r="C29" t="n">
-        <v>-50.40021454631362</v>
-      </c>
-      <c r="D29" t="n">
-        <v>192.8766639507254</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1466,12 +1288,6 @@
       <c r="B30" t="n">
         <v>68</v>
       </c>
-      <c r="C30" t="n">
-        <v>-40.6150783265244</v>
-      </c>
-      <c r="D30" t="n">
-        <v>184.3988885265454</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1480,12 +1296,6 @@
       <c r="B31" t="n">
         <v>68</v>
       </c>
-      <c r="C31" t="n">
-        <v>-51.67399116865662</v>
-      </c>
-      <c r="D31" t="n">
-        <v>192.9807068872273</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1494,12 +1304,6 @@
       <c r="B32" t="n">
         <v>68</v>
       </c>
-      <c r="C32" t="n">
-        <v>-60.66393689933863</v>
-      </c>
-      <c r="D32" t="n">
-        <v>187.6707835890621</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1508,12 +1312,6 @@
       <c r="B33" t="n">
         <v>67</v>
       </c>
-      <c r="C33" t="n">
-        <v>-47.30048523146942</v>
-      </c>
-      <c r="D33" t="n">
-        <v>189.8927486407972</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1522,12 +1320,6 @@
       <c r="B34" t="n">
         <v>67</v>
       </c>
-      <c r="C34" t="n">
-        <v>-50.90871791372717</v>
-      </c>
-      <c r="D34" t="n">
-        <v>183.1648117754334</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1536,12 +1328,6 @@
       <c r="B35" t="n">
         <v>67</v>
       </c>
-      <c r="C35" t="n">
-        <v>-55.46768125725465</v>
-      </c>
-      <c r="D35" t="n">
-        <v>185.4832584885398</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1550,12 +1336,6 @@
       <c r="B36" t="n">
         <v>64</v>
       </c>
-      <c r="C36" t="n">
-        <v>-60.55433179007139</v>
-      </c>
-      <c r="D36" t="n">
-        <v>179.9171411593573</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1564,12 +1344,6 @@
       <c r="B37" t="n">
         <v>63</v>
       </c>
-      <c r="C37" t="n">
-        <v>-50.29541098754665</v>
-      </c>
-      <c r="D37" t="n">
-        <v>182.3181606174111</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1578,12 +1352,6 @@
       <c r="B38" t="n">
         <v>63</v>
       </c>
-      <c r="C38" t="n">
-        <v>-60.90557009568913</v>
-      </c>
-      <c r="D38" t="n">
-        <v>187.4976004948539</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1592,12 +1360,6 @@
       <c r="B39" t="n">
         <v>63</v>
       </c>
-      <c r="C39" t="n">
-        <v>-46.03549630304442</v>
-      </c>
-      <c r="D39" t="n">
-        <v>185.7629322521187</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1606,12 +1368,6 @@
       <c r="B40" t="n">
         <v>62</v>
       </c>
-      <c r="C40" t="n">
-        <v>-57.04779604066113</v>
-      </c>
-      <c r="D40" t="n">
-        <v>186.5403309190393</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1620,12 +1376,6 @@
       <c r="B41" t="n">
         <v>62</v>
       </c>
-      <c r="C41" t="n">
-        <v>-62.17562752813383</v>
-      </c>
-      <c r="D41" t="n">
-        <v>177.9171161999453</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1634,12 +1384,6 @@
       <c r="B42" t="n">
         <v>62</v>
       </c>
-      <c r="C42" t="n">
-        <v>-60.1082109340759</v>
-      </c>
-      <c r="D42" t="n">
-        <v>173.9091244743662</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1648,12 +1392,6 @@
       <c r="B43" t="n">
         <v>61</v>
       </c>
-      <c r="C43" t="n">
-        <v>-51.38017451579248</v>
-      </c>
-      <c r="D43" t="n">
-        <v>190.3559271876168</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1662,12 +1400,6 @@
       <c r="B44" t="n">
         <v>61</v>
       </c>
-      <c r="C44" t="n">
-        <v>-60.24703219651794</v>
-      </c>
-      <c r="D44" t="n">
-        <v>179.5577127063544</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1676,12 +1408,6 @@
       <c r="B45" t="n">
         <v>61</v>
       </c>
-      <c r="C45" t="n">
-        <v>-63.53953253384415</v>
-      </c>
-      <c r="D45" t="n">
-        <v>186.0144593239524</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1690,12 +1416,6 @@
       <c r="B46" t="n">
         <v>60</v>
       </c>
-      <c r="C46" t="n">
-        <v>-59.06793979824822</v>
-      </c>
-      <c r="D46" t="n">
-        <v>165.2841113866724</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1704,12 +1424,6 @@
       <c r="B47" t="n">
         <v>60</v>
       </c>
-      <c r="C47" t="n">
-        <v>-60.32438232145171</v>
-      </c>
-      <c r="D47" t="n">
-        <v>179.5825228250941</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1718,12 +1432,6 @@
       <c r="B48" t="n">
         <v>60</v>
       </c>
-      <c r="C48" t="n">
-        <v>-62.44777555760031</v>
-      </c>
-      <c r="D48" t="n">
-        <v>174.4586470905649</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1732,12 +1440,6 @@
       <c r="B49" t="n">
         <v>60</v>
       </c>
-      <c r="C49" t="n">
-        <v>-63.03369746841155</v>
-      </c>
-      <c r="D49" t="n">
-        <v>187.8996505012414</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1746,12 +1448,6 @@
       <c r="B50" t="n">
         <v>59</v>
       </c>
-      <c r="C50" t="n">
-        <v>-56.73335262522812</v>
-      </c>
-      <c r="D50" t="n">
-        <v>184.2670947115664</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1760,12 +1456,6 @@
       <c r="B51" t="n">
         <v>59</v>
       </c>
-      <c r="C51" t="n">
-        <v>-65.85498960308095</v>
-      </c>
-      <c r="D51" t="n">
-        <v>183.842517136718</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1774,12 +1464,6 @@
       <c r="B52" t="n">
         <v>59</v>
       </c>
-      <c r="C52" t="n">
-        <v>-60.30270940763586</v>
-      </c>
-      <c r="D52" t="n">
-        <v>172.9197181185741</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1788,12 +1472,6 @@
       <c r="B53" t="n">
         <v>59</v>
       </c>
-      <c r="C53" t="n">
-        <v>-63.20177062556795</v>
-      </c>
-      <c r="D53" t="n">
-        <v>179.2493289956711</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1802,12 +1480,6 @@
       <c r="B54" t="n">
         <v>58</v>
       </c>
-      <c r="C54" t="n">
-        <v>-63.79943341780032</v>
-      </c>
-      <c r="D54" t="n">
-        <v>181.1528914589485</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1816,12 +1488,6 @@
       <c r="B55" t="n">
         <v>58</v>
       </c>
-      <c r="C55" t="n">
-        <v>-54.11729946975956</v>
-      </c>
-      <c r="D55" t="n">
-        <v>182.7271411164385</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1830,12 +1496,6 @@
       <c r="B56" t="n">
         <v>58</v>
       </c>
-      <c r="C56" t="n">
-        <v>-61.75475085682893</v>
-      </c>
-      <c r="D56" t="n">
-        <v>168.6204607399958</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1844,12 +1504,6 @@
       <c r="B57" t="n">
         <v>58</v>
       </c>
-      <c r="C57" t="n">
-        <v>-63.65129624936704</v>
-      </c>
-      <c r="D57" t="n">
-        <v>180.3747538753896</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1858,12 +1512,6 @@
       <c r="B58" t="n">
         <v>57</v>
       </c>
-      <c r="C58" t="n">
-        <v>-62.22006106135753</v>
-      </c>
-      <c r="D58" t="n">
-        <v>177.3664300753771</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1872,12 +1520,6 @@
       <c r="B59" t="n">
         <v>57</v>
       </c>
-      <c r="C59" t="n">
-        <v>-62.15020258390854</v>
-      </c>
-      <c r="D59" t="n">
-        <v>183.1357283488026</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1886,12 +1528,6 @@
       <c r="B60" t="n">
         <v>57</v>
       </c>
-      <c r="C60" t="n">
-        <v>-66.00777825775923</v>
-      </c>
-      <c r="D60" t="n">
-        <v>173.0235543356748</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1899,12 +1535,6 @@
       </c>
       <c r="B61" t="n">
         <v>57</v>
-      </c>
-      <c r="C61" t="n">
-        <v>-61.11293905838006</v>
-      </c>
-      <c r="D61" t="n">
-        <v>174.6304854884061</v>
       </c>
     </row>
   </sheetData>
